--- a/logs.xlsx
+++ b/logs.xlsx
@@ -10,7 +10,7 @@
     <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">log!$A$1:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">log!$A$1:$H$100</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="348">
   <si>
     <t>IP-адрес</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Время на сайте</t>
   </si>
   <si>
+    <t>00:01:30</t>
+  </si>
+  <si>
     <t>188.32.242.xxx</t>
   </si>
   <si>
@@ -89,6 +92,474 @@
     <t>00:02:43</t>
   </si>
   <si>
+    <t>37.29.40.xxx</t>
+  </si>
+  <si>
+    <t>00:02:54</t>
+  </si>
+  <si>
+    <t>91.193.178.xxx</t>
+  </si>
+  <si>
+    <t>00:01:38</t>
+  </si>
+  <si>
+    <t>5.16.116.xxx</t>
+  </si>
+  <si>
+    <t>188.170.85.xxx</t>
+  </si>
+  <si>
+    <t>00:06:06</t>
+  </si>
+  <si>
+    <t>83.220.237.xxx</t>
+  </si>
+  <si>
+    <t>00:00:46</t>
+  </si>
+  <si>
+    <t>85.115.248.xxx</t>
+  </si>
+  <si>
+    <t>00:01:57</t>
+  </si>
+  <si>
+    <t>91.108.29.xxx</t>
+  </si>
+  <si>
+    <t>00:00:41</t>
+  </si>
+  <si>
+    <t>109.252.61.xxx</t>
+  </si>
+  <si>
+    <t>00:02:39</t>
+  </si>
+  <si>
+    <t>185.150.154.xxx</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>37.29.41.xxx</t>
+  </si>
+  <si>
+    <t>00:09:29</t>
+  </si>
+  <si>
+    <t>185.244.23.xxx</t>
+  </si>
+  <si>
+    <t>00:01:24</t>
+  </si>
+  <si>
+    <t>217.118.90.xxx</t>
+  </si>
+  <si>
+    <t>00:00:47</t>
+  </si>
+  <si>
+    <t>77.222.116.xxx</t>
+  </si>
+  <si>
+    <t>00:05:20</t>
+  </si>
+  <si>
+    <t>85.26.233.xxx</t>
+  </si>
+  <si>
+    <t>00:03:00</t>
+  </si>
+  <si>
+    <t>158.46.76.xxx</t>
+  </si>
+  <si>
+    <t>00:03:16</t>
+  </si>
+  <si>
+    <t>178.176.73.xxx</t>
+  </si>
+  <si>
+    <t>00:00:50</t>
+  </si>
+  <si>
+    <t>80.80.194.xxx</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>83.220.239.xxx</t>
+  </si>
+  <si>
+    <t>00:00:54</t>
+  </si>
+  <si>
+    <t>94.25.171.xxx</t>
+  </si>
+  <si>
+    <t>00:00:17</t>
+  </si>
+  <si>
+    <t>109.252.138.xxx</t>
+  </si>
+  <si>
+    <t>00:01:45</t>
+  </si>
+  <si>
+    <t>109.252.19.xxx</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>171.33.248.xxx</t>
+  </si>
+  <si>
+    <t>00:00:45</t>
+  </si>
+  <si>
+    <t>188.170.76.xxx</t>
+  </si>
+  <si>
+    <t>00:06:03</t>
+  </si>
+  <si>
+    <t>188.170.77.xxx</t>
+  </si>
+  <si>
+    <t>00:00:59</t>
+  </si>
+  <si>
+    <t>195.9.174.xxx</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>31.173.240.xxx</t>
+  </si>
+  <si>
+    <t>00:00:27</t>
+  </si>
+  <si>
+    <t>46.188.123.xxx</t>
+  </si>
+  <si>
+    <t>46.62.67.xxx</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>77.222.119.xxx</t>
+  </si>
+  <si>
+    <t>00:00:19</t>
+  </si>
+  <si>
+    <t>83.220.236.xxx</t>
+  </si>
+  <si>
+    <t>85.26.234.xxx</t>
+  </si>
+  <si>
+    <t>00:01:02</t>
+  </si>
+  <si>
+    <t>94.25.169.xxx</t>
+  </si>
+  <si>
+    <t>00:04:19</t>
+  </si>
+  <si>
+    <t>176.59.49.xxx</t>
+  </si>
+  <si>
+    <t>00:01:25</t>
+  </si>
+  <si>
+    <t>176.59.52.xxx</t>
+  </si>
+  <si>
+    <t>00:07:19</t>
+  </si>
+  <si>
+    <t>178.176.77.xxx</t>
+  </si>
+  <si>
+    <t>00:05:02</t>
+  </si>
+  <si>
+    <t>2a00:1fa0:8626:e059::xxx</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>2a00:1fa1:84a7:464e::xxx</t>
+  </si>
+  <si>
+    <t>00:01:17</t>
+  </si>
+  <si>
+    <t>31.173.101.xxx</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>46.39.51.xxx</t>
+  </si>
+  <si>
+    <t>00:00:34</t>
+  </si>
+  <si>
+    <t>89.107.139.xxx</t>
+  </si>
+  <si>
+    <t>00:07:26</t>
+  </si>
+  <si>
+    <t>91.193.179.xxx</t>
+  </si>
+  <si>
+    <t>00:01:15</t>
+  </si>
+  <si>
+    <t>109.197.204.xxx</t>
+  </si>
+  <si>
+    <t>00:00:39</t>
+  </si>
+  <si>
+    <t>171.76.154.xxx</t>
+  </si>
+  <si>
+    <t>00:02:35</t>
+  </si>
+  <si>
+    <t>176.59.40.xxx</t>
+  </si>
+  <si>
+    <t>00:03:22</t>
+  </si>
+  <si>
+    <t>178.155.6.xxx</t>
+  </si>
+  <si>
+    <t>00:01:00</t>
+  </si>
+  <si>
+    <t>178.176.72.xxx</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>178.176.76.xxx</t>
+  </si>
+  <si>
+    <t>00:08:51</t>
+  </si>
+  <si>
+    <t>178.176.79.xxx</t>
+  </si>
+  <si>
+    <t>00:05:52</t>
+  </si>
+  <si>
+    <t>178.214.253.xxx</t>
+  </si>
+  <si>
+    <t>00:00:38</t>
+  </si>
+  <si>
+    <t>185.21.67.xxx</t>
+  </si>
+  <si>
+    <t>00:04:29</t>
+  </si>
+  <si>
+    <t>185.97.201.xxx</t>
+  </si>
+  <si>
+    <t>00:00:18</t>
+  </si>
+  <si>
+    <t>188.0.169.xxx</t>
+  </si>
+  <si>
+    <t>00:01:19</t>
+  </si>
+  <si>
+    <t>188.170.193.xxx</t>
+  </si>
+  <si>
+    <t>188.170.195.xxx</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>188.242.159.xxx</t>
+  </si>
+  <si>
+    <t>00:13:00</t>
+  </si>
+  <si>
+    <t>195.58.60.xxx</t>
+  </si>
+  <si>
+    <t>195.58.61.xxx</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>213.87.152.xxx</t>
+  </si>
+  <si>
+    <t>00:00:29</t>
+  </si>
+  <si>
+    <t>2a00:1fa0:8681:f970::xxx</t>
+  </si>
+  <si>
+    <t>31.173.86.xxx</t>
+  </si>
+  <si>
+    <t>5.18.170.xxx</t>
+  </si>
+  <si>
+    <t>00:03:26</t>
+  </si>
+  <si>
+    <t>78.156.235.xxx</t>
+  </si>
+  <si>
+    <t>83.149.21.xxx</t>
+  </si>
+  <si>
+    <t>83.149.45.xxx</t>
+  </si>
+  <si>
+    <t>83.169.216.xxx</t>
+  </si>
+  <si>
+    <t>00:00:09</t>
+  </si>
+  <si>
+    <t>83.220.238.xxx</t>
+  </si>
+  <si>
+    <t>00:02:01</t>
+  </si>
+  <si>
+    <t>91.193.177.xxx</t>
+  </si>
+  <si>
+    <t>95.153.133.xxx</t>
+  </si>
+  <si>
+    <t>00:00:25</t>
+  </si>
+  <si>
+    <t>109.197.205.xxx</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>109.252.90.xxx</t>
+  </si>
+  <si>
+    <t>176.100.107.xxx</t>
+  </si>
+  <si>
+    <t>176.117.198.xxx</t>
+  </si>
+  <si>
+    <t>176.52.97.xxx</t>
+  </si>
+  <si>
+    <t>176.59.192.xxx</t>
+  </si>
+  <si>
+    <t>00:06:10</t>
+  </si>
+  <si>
+    <t>176.59.202.xxx</t>
+  </si>
+  <si>
+    <t>00:07:58</t>
+  </si>
+  <si>
+    <t>176.59.205.xxx</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>176.59.212.xxx</t>
+  </si>
+  <si>
+    <t>00:06:40</t>
+  </si>
+  <si>
+    <t>176.59.36.xxx</t>
+  </si>
+  <si>
+    <t>176.59.38.xxx</t>
+  </si>
+  <si>
+    <t>00:02:17</t>
+  </si>
+  <si>
+    <t>176.59.39.xxx</t>
+  </si>
+  <si>
+    <t>176.59.47.xxx</t>
+  </si>
+  <si>
+    <t>00:00:55</t>
+  </si>
+  <si>
+    <t>176.59.51.xxx</t>
+  </si>
+  <si>
+    <t>00:01:11</t>
+  </si>
+  <si>
+    <t>178.155.4.xxx</t>
+  </si>
+  <si>
+    <t>178.176.74.xxx</t>
+  </si>
+  <si>
+    <t>178.47.33.xxx</t>
+  </si>
+  <si>
+    <t>178.70.163.xxx</t>
+  </si>
+  <si>
+    <t>188.0.175.xxx</t>
+  </si>
+  <si>
+    <t>188.17.197.xxx</t>
+  </si>
+  <si>
+    <t>00:03:05</t>
+  </si>
+  <si>
+    <t>188.170.196.xxx</t>
+  </si>
+  <si>
+    <t>188.170.74.xxx</t>
+  </si>
+  <si>
     <t>м</t>
   </si>
   <si>
@@ -104,15 +575,45 @@
     <t>Android Browser</t>
   </si>
   <si>
+    <t>Mobile Safari</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер</t>
+  </si>
+  <si>
+    <t>Chrome Mobile</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Samsung Internet</t>
+  </si>
+  <si>
     <t>Яндекс: мобильное приложение</t>
   </si>
   <si>
     <t>Opera</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
     <t>MIUI</t>
   </si>
   <si>
+    <t>Opera Mobile</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>MSIE</t>
+  </si>
+  <si>
     <t>Firefox Mobile</t>
   </si>
   <si>
@@ -125,30 +626,150 @@
     <t>Android Browser 10</t>
   </si>
   <si>
+    <t>Mobile Safari (другие или не определено)</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер 20</t>
+  </si>
+  <si>
+    <t>Chrome Mobile 85</t>
+  </si>
+  <si>
     <t>Android Browser 9</t>
   </si>
   <si>
+    <t>Mobile Safari 13</t>
+  </si>
+  <si>
+    <t>Google Chrome 84</t>
+  </si>
+  <si>
+    <t>Samsung Internet 12</t>
+  </si>
+  <si>
+    <t>Chrome Mobile 84</t>
+  </si>
+  <si>
     <t>Яндекс: мобильное приложение 20</t>
   </si>
   <si>
+    <t>Яндекс.Браузер 19</t>
+  </si>
+  <si>
+    <t>Android Browser 8</t>
+  </si>
+  <si>
+    <t>Android Browser 7</t>
+  </si>
+  <si>
+    <t>MIUI 12</t>
+  </si>
+  <si>
+    <t>Mobile Safari 12</t>
+  </si>
+  <si>
     <t>Яндекс: мобильное приложение 9</t>
   </si>
   <si>
+    <t>Opera Mobile 50</t>
+  </si>
+  <si>
+    <t>Mobile Safari 11</t>
+  </si>
+  <si>
+    <t>Chrome Mobile 83</t>
+  </si>
+  <si>
+    <t>Google Chrome 49</t>
+  </si>
+  <si>
+    <t>Chrome Mobile 70</t>
+  </si>
+  <si>
+    <t>Яндекс: мобильное приложение 11</t>
+  </si>
+  <si>
+    <t>Edge 18</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер 17</t>
+  </si>
+  <si>
+    <t>Яндекс: мобильное приложение 7</t>
+  </si>
+  <si>
+    <t>Opera 36</t>
+  </si>
+  <si>
+    <t>MSIE 11</t>
+  </si>
+  <si>
     <t>Google Chrome 70</t>
   </si>
   <si>
+    <t>Chrome Mobile 81</t>
+  </si>
+  <si>
+    <t>Opera 68</t>
+  </si>
+  <si>
     <t>Firefox 77</t>
   </si>
   <si>
     <t>MSIE 8</t>
   </si>
   <si>
+    <t>Google Chrome 74</t>
+  </si>
+  <si>
+    <t>Google Chrome 75</t>
+  </si>
+  <si>
+    <t>Google Chrome 79</t>
+  </si>
+  <si>
+    <t>UCWEB 11</t>
+  </si>
+  <si>
+    <t>UCWEB 13</t>
+  </si>
+  <si>
+    <t>Mobile Safari 10</t>
+  </si>
+  <si>
+    <t>Firefox Mobile 13</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер 18</t>
+  </si>
+  <si>
+    <t>Android Browser 4</t>
+  </si>
+  <si>
+    <t>Chrome Mobile 46</t>
+  </si>
+  <si>
     <t>Chrome Mobile 77</t>
   </si>
   <si>
+    <t>Chrome Mobile 79</t>
+  </si>
+  <si>
+    <t>Яндекс: мобильное приложение 5</t>
+  </si>
+  <si>
     <t>Яндекс: мобильное приложение 8</t>
   </si>
   <si>
+    <t>Яндекс: мобильное приложение 10</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер lite 19</t>
+  </si>
+  <si>
+    <t>Meizu Browser 8</t>
+  </si>
+  <si>
     <t>Версия браузера</t>
   </si>
   <si>
@@ -182,7 +803,274 @@
     <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,Защитное стекло для Huawei Honor 30S,Мешок для обуви №1School синий K8547B</t>
   </si>
   <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Защитное 5D стекло для Xiaomi Redmi Note 9S ,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,ArtSpace Набор обложек для дневников и тетрадей 210x350 мм,Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,Аккумулятор Xiaomi Mi Power Bank 3 10000 (PLM13ZM),ErichKrause Мешок для обуви Meow (48351) черный</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,Greenwich Line Набор обложек для учебников,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Защитное стекло для Huawei Honor 30S,ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,ArtSpace Набор обложек для учебников Петерсон,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Сменный ремешок для Xiaomi Mi Band 4 и Mi Band 3 Черный,Шторка для веб камеры универсальная,ArtSpace Набор обложек для дневников и тетрадей  208х346 мм</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,Greenwich Line Набор обложек для учебников,Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Защитное стекло для Huawei Honor 30S,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,Greenwich Line Набор обложек для учебников,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,ArtSpace Набор обложек для учебников Петерсон,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Защитное 5D стекло для Xiaomi Redmi Note 9S ,ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Зарядное устройство для телефона 1А ,ArtSpace Обложки для учебников 23,BRAUBERG Подставка для книг 230909 серый</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Защитное 5D стекло для Xiaomi Redmi Note 9S ,PROFFI Карта мира со стирающимся слоем (PH9398)</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Greenwich Line Набор обложек для учебников,Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,ArtSpace Обложки для учебников 23,ErichKrause Мешок для обуви Meow (48351) черный</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 5 (CN) черный,Защитное стекло для Huawei Honor 30S,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Защитное 5D стекло для Xiaomi Redmi Note 9S ,PROFFI Карта мира со стирающимся слоем (PH9398)</t>
+  </si>
+  <si>
+    <t>Сменный ремешок для Xiaomi Mi Band 4 и Mi Band 3 Черный,ArtSpace Набор обложек для учебников Петерсон,Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Greenwich Line Набор обложек для учебников,ArtSpace Набор обложек для дневников и тетрадей  208х346 мм</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,BRAUBERG Подставка для книг 230909 серый</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Защитное стекло FULL GLUE стекло для Apple iPhone 11 ,ArtSpace Обложки для учебников 23,ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,ArtSpace Набор обложек для учебников Петерсон,Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Чехол ТПУ для iPhone 11 (Темно-синий),Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,ArtSpace Набор обложек для дневников и тетрадей 210х350 мм,Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>Зарядное устройство для телефона 1А ,Пифагор Пленка самоклеящаяся для учебников и книг,Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,ArtSpace Обложки для учебников 23,Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Парковочная автовизитка с магнитными цифрами,Berlingo Мешок для обуви Challenge (MS09239) черный</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Аккумулятор Xiaomi Mi Power Bank 3 10000 (PLM13ZM),Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>Сменный ремешок для Xiaomi Mi Band 4 и Mi Band 3 Черный,Пифагор Пленка самоклеящаяся для учебников и книг,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Парковочная автовизитка с магнитными цифрами,ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,Защитное стекло 5D для Samsung Galaxy A31 ,Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Защитное стекло FULL GLUE стекло для Apple iPhone 11 ,Чехол ТПУ для iPhone 11 (Темно-синий),Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,ArtSpace Набор обложек для дневников и тетрадей 210х350 мм,ErichKrause Мешок для обуви Meow (48351) черный</t>
+  </si>
+  <si>
+    <t>Кабель USB AM AM 20см GCR 10011 28,ArtSpace Обложки для учебников 23,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,Аккумулятор Xiaomi Mi Power Bank 3 10000 (PLM13ZM),Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,Пифагор Пленка самоклеящаяся для учебников и книг,PROFFI Карта мира со стирающимся слоем (PH9398)</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Защитное 5D стекло для Xiaomi Redmi Note 9S ,Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Шторка для веб камеры универсальная,Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,Защитное стекло 5D для Samsung Galaxy A31 ,BRAUBERG Подставка для книг 230909 серый</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Чехол ТПУ для iPhone 11 (Темно-синий),ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Зарядное устройство для телефона 1А ,ArtSpace Набор обложек для дневников и тетрадей 210х350 мм,Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,Greenwich Line Набор обложек для учебников,ErichKrause Мешок для обуви Meow (48351) черный</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,PROFFI Карта мира со стирающимся слоем (PH9398)</t>
+  </si>
+  <si>
+    <t>Защитное стекло TopMobile для Xiaomi Redmi Note 7,Парковочная автовизитка с магнитными цифрами,PROFFI Карта мира со стирающимся слоем (PH9398)</t>
+  </si>
+  <si>
+    <t>Кабель ZMI USB - microUSB (AL600) 1 м черный,ArtSpace Набор обложек для дневников и тетрадей 210х350 мм,ErichKrause Мешок для обуви Meow (48351) черный</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,Защитное стекло для Huawei Honor 30S,ArtSpace Набор обложек для дневников и тетрадей  208х346 мм</t>
+  </si>
+  <si>
+    <t>Рация Baofeng BF-888S черный,ArtSpace Набор обложек для учебников Петерсон,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Аккумулятор Xiaomi Mi Power Bank 3 10000 (PLM13ZM),ArtSpace Фартук с нарукавниками однотонный (ФН_1818) черный</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,Чехол ТПУ для iPhone 11 (Темно-синий),Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>Защитное стекло FULL GLUE стекло для Apple iPhone 11 ,Парковочная автовизитка с магнитными цифрами,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Переходник Atcom MicroUSB - USB Type-C (АТ8101) черный,Защитное стекло для Huawei Honor 30S,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 5 (CN) черный,Пифагор Пленка самоклеящаяся для учебников и книг,Berlingo Мешок для обуви Dream Unicorn (MS09230) фиолетовый</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,ArtSpace Обложки для учебников 23,Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Шторка для веб камеры универсальная,Berlingo Мешок для обуви Challenge (MS09239) черный</t>
+  </si>
+  <si>
+    <t>ArtSpace Обложки для учебников 23,Мешок для обуви G9807 (черный)</t>
+  </si>
+  <si>
+    <t>BRAUBERG Сумка для обуви (227141,Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,ArtSpace Набор обложек для дневников и тетрадей 208х346 мм</t>
+  </si>
+  <si>
+    <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм,Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>BRAUBERG Сумка для обуви (227141,Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+  </si>
+  <si>
+    <t>Защитное стекло 5D для Samsung Galaxy A31 ,Мешок для обуви №1School синий K8547B</t>
+  </si>
+  <si>
+    <t>Чехол ТПУ для iPhone 11 (Темно-синий),Greenwich Line Набор обложек для учебников старших классов 230x380 мм</t>
+  </si>
+  <si>
+    <t>Парковочная автовизитка с магнитными цифрами,Мешок для обуви 1 отделение ArtSpace</t>
+  </si>
+  <si>
+    <t>Переходник Atcom USB OTG - USB Type-C (АТ4716) 0.1 м черный,Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+  </si>
+  <si>
+    <t>Зарядное устройство для телефона 1А ,Шторка для веб камеры универсальная,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,ArtSpace Набор обложек для дневников и тетрадей 210x350 мм,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Защитное 5D стекло для Xiaomi Redmi 8 ,Защитное стекло для Huawei Honor 30S,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Кабель USB AM AM 20см GCR 10011 28,Greenwich Line Набор обложек для учебников,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,Парковочная автовизитка с магнитными цифрами,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,Защитное 5D стекло для Xiaomi Redmi Note 9S ,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
     <t>Рация Baofeng BF-888S черный,Переходник Atcom USB OTG - USB Type-C (АТ4716) 0.1 м черный,ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,Защитное стекло 5D для Samsung Galaxy A31 ,ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Защитное стекло TopMobile для Xiaomi Redmi Note 7,ArtSpace Обложки для учебников 23,ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Защитное стекло TopMobile для Xiaomi Redmi Note 7,Greenwich Line Набор обложек для учебников,ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Силиконовый ремешок для фитнес-браслета Xiaomi Mi Band 3 ,ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Чехол ТПУ для iPhone 11 (Темно-синий),ArtSpace Фартук с нарукавниками High Speed ФС_280822</t>
+  </si>
+  <si>
+    <t>Кабель USB AM AM 20см GCR 10011 28,Аккумулятор Xiaomi Mi Power Bank 3 10000 (PLM13ZM),Пифагор Набор для уроков труда и занятий творчеством 227060</t>
+  </si>
+  <si>
+    <t>Защитное стекло FULL GLUE стекло для Apple iPhone 11 ,Защитное стекло для Huawei Honor 30S,Пифагор Набор для уроков труда и занятий творчеством 227060</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Пифагор Набор для уроков труда и занятий творчеством 227060,ArtSpace Фартук с нарукавниками Нежные цветы ФС_280824</t>
+  </si>
+  <si>
+    <t>Прозрачный силиконовый чехол для iPhone 6 ,Переходник Atcom USB OTG - USB Type-C (АТ4716) 0.1 м черный,Пифагор Набор для уроков труда и занятий творчеством 227060</t>
+  </si>
+  <si>
+    <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11,Защитное стекло для Huawei Honor 30S,Золотой iPhone 512Gb</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,ArtSpace Набор обложек для дневников и тетрадей 210x350 мм,Золотой iPhone 512Gb</t>
+  </si>
+  <si>
+    <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный,Переходник Atcom USB OTG - USB Type-C (АТ4716) 0.1 м черный,Золотой iPhone 512Gb</t>
+  </si>
+  <si>
+    <t>Браслет Xiaomi Mi Band 4 Deep space blue,ArtSpace Набор обложек для дневников и тетрадей 210x350 мм,Золотой iPhone 512Gb</t>
+  </si>
+  <si>
+    <t>Ремешок Gurdini фитнес браслета Xiaomi Mi Band 3,Защитное стекло для Huawei Honor 30S,Золотой iPhone 512Gb</t>
   </si>
 </sst>
 </file>
@@ -579,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,263 +1483,2603 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3">
         <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11">
         <v>43914</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C3" s="3">
         <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11">
         <v>44021</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3">
         <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="11">
         <v>43974</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3">
         <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="11">
         <v>43864</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>51</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3">
         <v>66</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="11">
         <v>43869</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C7" s="3">
         <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="11">
         <v>43893</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3">
         <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="11">
         <v>43872</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="C9" s="3">
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="11">
         <v>43959</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3">
         <v>48</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="11">
         <v>43904</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43954</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43854</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="3">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
+        <v>44019</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11">
+        <v>43921</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="3">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11">
+        <v>44010</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="11">
+        <v>43942</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="3">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="11">
+        <v>43972</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="3">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43870</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="3">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="11">
+        <v>43844</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="3">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="11">
+        <v>43986</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="11">
+        <v>43889</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="3">
+        <v>54</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="11">
+        <v>43998</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="3">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="11">
+        <v>43950</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="11">
+        <v>43898</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="3">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="11">
+        <v>43978</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="3">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="11">
+        <v>43851</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="3">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="11">
+        <v>44002</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="3">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="11">
+        <v>44023</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="3">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="11">
+        <v>43936</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="3">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="11">
+        <v>43848</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="11">
+        <v>43937</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="3">
+        <v>32</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="11">
+        <v>43842</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="3">
+        <v>53</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="11">
+        <v>43945</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="11">
+        <v>43944</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="3">
+        <v>56</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="11">
+        <v>44004</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="3">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="11">
+        <v>43981</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="3">
+        <v>59</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="11">
+        <v>43978</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="3">
+        <v>34</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11">
+        <v>44025</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="3">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="11">
+        <v>43885</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="3">
+        <v>64</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="11">
+        <v>43859</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="3">
+        <v>37</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="11">
+        <v>43996</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="3">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="11">
+        <v>43996</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="3">
+        <v>57</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="11">
+        <v>44019</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="3">
+        <v>50</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="11">
+        <v>44019</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="3">
+        <v>58</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="11">
+        <v>43965</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="11">
+        <v>43908</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="3">
+        <v>68</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="11">
+        <v>43975</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="3">
+        <v>54</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="11">
+        <v>43970</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="3">
+        <v>59</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="11">
+        <v>44014</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="3">
+        <v>60</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="11">
+        <v>43901</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="3">
+        <v>31</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="11">
+        <v>43955</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="3">
+        <v>24</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="11">
+        <v>43940</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="3">
+        <v>34</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="3">
+        <v>54</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="11">
+        <v>43990</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="3">
+        <v>47</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="11">
+        <v>44019</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="3">
+        <v>31</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="11">
+        <v>43904</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="3">
+        <v>36</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="11">
+        <v>43908</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="3">
+        <v>69</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="11">
+        <v>43867</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="3">
+        <v>47</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="11">
+        <v>43977</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="3">
+        <v>32</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="11">
+        <v>43875</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="3">
+        <v>38</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="11">
+        <v>43855</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="3">
+        <v>54</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="11">
+        <v>43974</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="3">
+        <v>51</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="11">
+        <v>43837</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="3">
+        <v>47</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="11">
+        <v>44031</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="3">
+        <v>62</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="11">
+        <v>43918</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="3">
+        <v>57</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="11">
+        <v>43901</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="3">
+        <v>45</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="11">
+        <v>44028</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="3">
+        <v>66</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="11">
+        <v>43956</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="3">
+        <v>37</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" s="11">
+        <v>43895</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="3">
+        <v>51</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="3">
+        <v>28</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="11">
+        <v>44022</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="3">
+        <v>60</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="11">
+        <v>43967</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="3">
+        <v>55</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="11">
+        <v>43891</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="3">
+        <v>27</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" s="11">
+        <v>43892</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="3">
+        <v>62</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="11">
+        <v>43963</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="3">
+        <v>50</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" s="11">
+        <v>43948</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="3">
+        <v>67</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="11">
+        <v>43847</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="3">
+        <v>40</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="11">
+        <v>43905</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="3">
+        <v>48</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="11">
+        <v>44005</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="3">
+        <v>43</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="11">
+        <v>43970</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="3">
+        <v>14</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="11">
+        <v>44024</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="11">
+        <v>43880</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="3">
+        <v>22</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="11">
+        <v>43968</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="3">
+        <v>62</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="11">
+        <v>44031</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="3">
+        <v>68</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" s="11">
+        <v>43980</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="3">
+        <v>67</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="11">
+        <v>43936</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="3">
+        <v>62</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="11">
+        <v>43967</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="3">
+        <v>69</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="11">
+        <v>44022</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="3">
+        <v>55</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" s="11">
+        <v>43967</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="3">
+        <v>58</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" s="11">
+        <v>43918</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="3">
+        <v>26</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="11">
+        <v>44025</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="3">
+        <v>29</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G94" s="11">
+        <v>43993</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="3">
+        <v>20</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="11">
+        <v>43908</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="3">
+        <v>29</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="11">
+        <v>43857</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="3">
+        <v>23</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="11">
+        <v>43982</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="3">
+        <v>25</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" s="11">
+        <v>43997</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="3">
+        <v>48</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="11">
+        <v>43963</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="3">
+        <v>50</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G100" s="11">
+        <v>43893</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H10"/>
+  <autoFilter ref="A1:H100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>